--- a/NewProbableCasesOverTimeByCounty/2021-02-25.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-25.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/24/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/25/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-24</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-25</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1369,6 +1372,7 @@
     <col min="115" max="115" width="12.0" customWidth="true"/>
     <col min="116" max="116" width="12.0" customWidth="true"/>
     <col min="117" max="117" width="12.0" customWidth="true"/>
+    <col min="118" max="118" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1733,10 +1737,13 @@
       <c r="DM3" t="s" s="10">
         <v>118</v>
       </c>
+      <c r="DN3" t="s" s="10">
+        <v>119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2085,11 +2092,14 @@
       </c>
       <c r="DM4" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2437,12 +2447,15 @@
         <v>0.0</v>
       </c>
       <c r="DM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2790,12 +2803,15 @@
         <v>83.0</v>
       </c>
       <c r="DM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3143,12 +3159,15 @@
         <v>0.0</v>
       </c>
       <c r="DM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3496,12 +3515,15 @@
         <v>0.0</v>
       </c>
       <c r="DM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3849,12 +3871,15 @@
         <v>0.0</v>
       </c>
       <c r="DM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4203,11 +4228,14 @@
       </c>
       <c r="DM10" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4555,12 +4583,15 @@
         <v>0.0</v>
       </c>
       <c r="DM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN11" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4909,11 +4940,14 @@
       </c>
       <c r="DM12" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5262,11 +5296,14 @@
       </c>
       <c r="DM13" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5615,11 +5652,14 @@
       </c>
       <c r="DM14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5967,12 +6007,15 @@
         <v>0.0</v>
       </c>
       <c r="DM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6320,12 +6363,15 @@
         <v>0.0</v>
       </c>
       <c r="DM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6673,12 +6719,15 @@
         <v>0.0</v>
       </c>
       <c r="DM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -7027,11 +7076,14 @@
       </c>
       <c r="DM18" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -7379,12 +7431,15 @@
         <v>0.0</v>
       </c>
       <c r="DM19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -7732,12 +7787,15 @@
         <v>0.0</v>
       </c>
       <c r="DM20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -8086,11 +8144,14 @@
       </c>
       <c r="DM21" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -8439,11 +8500,14 @@
       </c>
       <c r="DM22" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -8792,11 +8856,14 @@
       </c>
       <c r="DM23" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -9145,11 +9212,14 @@
       </c>
       <c r="DM24" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -9498,11 +9568,14 @@
       </c>
       <c r="DM25" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -9851,11 +9924,14 @@
       </c>
       <c r="DM26" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -10203,12 +10279,15 @@
         <v>1.0</v>
       </c>
       <c r="DM27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN27" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -10556,12 +10635,15 @@
         <v>0.0</v>
       </c>
       <c r="DM28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -10909,12 +10991,15 @@
         <v>0.0</v>
       </c>
       <c r="DM29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN29" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -11263,11 +11348,14 @@
       </c>
       <c r="DM30" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN30" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -11615,12 +11703,15 @@
         <v>0.0</v>
       </c>
       <c r="DM31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DN31" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -11968,12 +12059,15 @@
         <v>14.0</v>
       </c>
       <c r="DM32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN32" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -12322,11 +12416,14 @@
       </c>
       <c r="DM33" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN33" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -12674,12 +12771,15 @@
         <v>0.0</v>
       </c>
       <c r="DM34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -13027,12 +13127,15 @@
         <v>0.0</v>
       </c>
       <c r="DM35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DN35" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -13381,11 +13484,14 @@
       </c>
       <c r="DM36" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN36" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -13734,11 +13840,14 @@
       </c>
       <c r="DM37" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN37" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -14086,12 +14195,15 @@
         <v>0.0</v>
       </c>
       <c r="DM38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN38" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -14439,12 +14551,15 @@
         <v>0.0</v>
       </c>
       <c r="DM39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -14793,11 +14908,14 @@
       </c>
       <c r="DM40" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN40" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -15145,12 +15263,15 @@
         <v>0.0</v>
       </c>
       <c r="DM41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -15498,12 +15619,15 @@
         <v>0.0</v>
       </c>
       <c r="DM42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN42" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -15851,12 +15975,15 @@
         <v>1.0</v>
       </c>
       <c r="DM43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -16205,11 +16332,14 @@
       </c>
       <c r="DM44" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN44" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -16558,11 +16688,14 @@
       </c>
       <c r="DM45" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN45" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -16911,11 +17044,14 @@
       </c>
       <c r="DM46" t="n">
         <v>138.0</v>
+      </c>
+      <c r="DN46" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -17263,12 +17399,15 @@
         <v>0.0</v>
       </c>
       <c r="DM47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -17616,12 +17755,15 @@
         <v>1.0</v>
       </c>
       <c r="DM48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN48" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -17970,11 +18112,14 @@
       </c>
       <c r="DM49" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DN49" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -18322,12 +18467,15 @@
         <v>0.0</v>
       </c>
       <c r="DM50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -18676,11 +18824,14 @@
       </c>
       <c r="DM51" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DN51" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -19029,11 +19180,14 @@
       </c>
       <c r="DM52" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -19381,12 +19535,15 @@
         <v>1.0</v>
       </c>
       <c r="DM53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN53" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -19734,12 +19891,15 @@
         <v>0.0</v>
       </c>
       <c r="DM54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -20088,11 +20248,14 @@
       </c>
       <c r="DM55" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -20441,11 +20604,14 @@
       </c>
       <c r="DM56" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN56" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -20794,11 +20960,14 @@
       </c>
       <c r="DM57" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DN57" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -21147,11 +21316,14 @@
       </c>
       <c r="DM58" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DN58" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -21500,11 +21672,14 @@
       </c>
       <c r="DM59" t="n">
         <v>-4.0</v>
+      </c>
+      <c r="DN59" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -21853,11 +22028,14 @@
       </c>
       <c r="DM60" t="n">
         <v>112.0</v>
+      </c>
+      <c r="DN60" t="n">
+        <v>282.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -22205,12 +22383,15 @@
         <v>0.0</v>
       </c>
       <c r="DM61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -22559,11 +22740,14 @@
       </c>
       <c r="DM62" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN62" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -22912,11 +23096,14 @@
       </c>
       <c r="DM63" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN63" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -23265,11 +23452,14 @@
       </c>
       <c r="DM64" t="n">
         <v>291.0</v>
+      </c>
+      <c r="DN64" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -23617,12 +23807,15 @@
         <v>0.0</v>
       </c>
       <c r="DM65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -23971,11 +24164,14 @@
       </c>
       <c r="DM66" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN66" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -24324,11 +24520,14 @@
       </c>
       <c r="DM67" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN67" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -24676,12 +24875,15 @@
         <v>0.0</v>
       </c>
       <c r="DM68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN68" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -25030,11 +25232,14 @@
       </c>
       <c r="DM69" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DN69" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -25383,11 +25588,14 @@
       </c>
       <c r="DM70" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN70" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -25736,11 +25944,14 @@
       </c>
       <c r="DM71" t="n">
         <v>164.0</v>
+      </c>
+      <c r="DN71" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -26088,12 +26299,15 @@
         <v>0.0</v>
       </c>
       <c r="DM72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -26442,11 +26656,14 @@
       </c>
       <c r="DM73" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DN73" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -26794,12 +27011,15 @@
         <v>0.0</v>
       </c>
       <c r="DM74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -27148,11 +27368,14 @@
       </c>
       <c r="DM75" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DN75" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -27500,12 +27723,15 @@
         <v>0.0</v>
       </c>
       <c r="DM76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN76" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -27854,11 +28080,14 @@
       </c>
       <c r="DM77" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN77" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -28207,11 +28436,14 @@
       </c>
       <c r="DM78" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN78" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -28559,12 +28791,15 @@
         <v>0.0</v>
       </c>
       <c r="DM79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -28912,12 +29147,15 @@
         <v>3.0</v>
       </c>
       <c r="DM80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN80" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -29265,12 +29503,15 @@
         <v>0.0</v>
       </c>
       <c r="DM81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -29619,11 +29860,14 @@
       </c>
       <c r="DM82" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN82" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -29972,11 +30216,14 @@
       </c>
       <c r="DM83" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN83" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -30325,11 +30572,14 @@
       </c>
       <c r="DM84" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN84" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -30678,11 +30928,14 @@
       </c>
       <c r="DM85" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DN85" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -31030,12 +31283,15 @@
         <v>0.0</v>
       </c>
       <c r="DM86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -31384,11 +31640,14 @@
       </c>
       <c r="DM87" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DN87" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -31736,12 +31995,15 @@
         <v>0.0</v>
       </c>
       <c r="DM88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN88" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -32090,11 +32352,14 @@
       </c>
       <c r="DM89" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DN89" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -32442,12 +32707,15 @@
         <v>1.0</v>
       </c>
       <c r="DM90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -32795,12 +33063,15 @@
         <v>0.0</v>
       </c>
       <c r="DM91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -33148,12 +33419,15 @@
         <v>7.0</v>
       </c>
       <c r="DM92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN92" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -33501,12 +33775,15 @@
         <v>4.0</v>
       </c>
       <c r="DM93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN93" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -33854,12 +34131,15 @@
         <v>0.0</v>
       </c>
       <c r="DM94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -34208,11 +34488,14 @@
       </c>
       <c r="DM95" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DN95" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -34561,11 +34844,14 @@
       </c>
       <c r="DM96" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DN96" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -34914,11 +35200,14 @@
       </c>
       <c r="DM97" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DN97" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -35266,12 +35555,15 @@
         <v>0.0</v>
       </c>
       <c r="DM98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -35620,11 +35912,14 @@
       </c>
       <c r="DM99" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN99" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -35973,11 +36268,14 @@
       </c>
       <c r="DM100" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN100" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -36326,11 +36624,14 @@
       </c>
       <c r="DM101" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN101" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -36678,12 +36979,15 @@
         <v>0.0</v>
       </c>
       <c r="DM102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -37032,11 +37336,14 @@
       </c>
       <c r="DM103" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DN103" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -37384,12 +37691,15 @@
         <v>0.0</v>
       </c>
       <c r="DM104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -37738,11 +38048,14 @@
       </c>
       <c r="DM105" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DN105" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -38091,11 +38404,14 @@
       </c>
       <c r="DM106" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN106" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -38443,12 +38759,15 @@
         <v>1.0</v>
       </c>
       <c r="DM107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN107" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -38797,11 +39116,14 @@
       </c>
       <c r="DM108" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN108" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -39149,12 +39471,15 @@
         <v>0.0</v>
       </c>
       <c r="DM109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -39503,11 +39828,14 @@
       </c>
       <c r="DM110" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DN110" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -39856,11 +40184,14 @@
       </c>
       <c r="DM111" t="n">
         <v>318.0</v>
+      </c>
+      <c r="DN111" t="n">
+        <v>472.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -40209,11 +40540,14 @@
       </c>
       <c r="DM112" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DN112" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -40562,11 +40896,14 @@
       </c>
       <c r="DM113" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN113" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -40915,11 +41252,14 @@
       </c>
       <c r="DM114" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN114" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -41268,11 +41608,14 @@
       </c>
       <c r="DM115" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DN115" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -41620,12 +41963,15 @@
         <v>0.0</v>
       </c>
       <c r="DM116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN116" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -41974,11 +42320,14 @@
       </c>
       <c r="DM117" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DN117" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -42326,12 +42675,15 @@
         <v>0.0</v>
       </c>
       <c r="DM118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -42679,12 +43031,15 @@
         <v>0.0</v>
       </c>
       <c r="DM119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -43033,11 +43388,14 @@
       </c>
       <c r="DM120" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN120" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -43386,11 +43744,14 @@
       </c>
       <c r="DM121" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DN121" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -43739,11 +44100,14 @@
       </c>
       <c r="DM122" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN122" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -44092,11 +44456,14 @@
       </c>
       <c r="DM123" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN123" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -44445,11 +44812,14 @@
       </c>
       <c r="DM124" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DN124" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -44797,12 +45167,15 @@
         <v>1.0</v>
       </c>
       <c r="DM125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -45150,12 +45523,15 @@
         <v>0.0</v>
       </c>
       <c r="DM126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -45504,11 +45880,14 @@
       </c>
       <c r="DM127" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN127" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -45857,11 +46236,14 @@
       </c>
       <c r="DM128" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN128" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -46210,11 +46592,14 @@
       </c>
       <c r="DM129" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DN129" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -46563,11 +46948,14 @@
       </c>
       <c r="DM130" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN130" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -46916,11 +47304,14 @@
       </c>
       <c r="DM131" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN131" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -47269,11 +47660,14 @@
       </c>
       <c r="DM132" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DN132" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -47622,11 +48016,14 @@
       </c>
       <c r="DM133" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN133" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -47974,12 +48371,15 @@
         <v>0.0</v>
       </c>
       <c r="DM134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -48327,12 +48727,15 @@
         <v>0.0</v>
       </c>
       <c r="DM135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -48681,11 +49084,14 @@
       </c>
       <c r="DM136" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DN136" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -49033,12 +49439,15 @@
         <v>0.0</v>
       </c>
       <c r="DM137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN137" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -49386,12 +49795,15 @@
         <v>0.0</v>
       </c>
       <c r="DM138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -49739,12 +50151,15 @@
         <v>1.0</v>
       </c>
       <c r="DM139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -50093,11 +50508,14 @@
       </c>
       <c r="DM140" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DN140" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -50445,12 +50863,15 @@
         <v>0.0</v>
       </c>
       <c r="DM141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -50799,11 +51220,14 @@
       </c>
       <c r="DM142" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DN142" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -51152,11 +51576,14 @@
       </c>
       <c r="DM143" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN143" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -51504,12 +51931,15 @@
         <v>0.0</v>
       </c>
       <c r="DM144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN144" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -51858,11 +52288,14 @@
       </c>
       <c r="DM145" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DN145" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -52211,11 +52644,14 @@
       </c>
       <c r="DM146" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN146" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -52564,11 +53000,14 @@
       </c>
       <c r="DM147" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DN147" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -52917,11 +53356,14 @@
       </c>
       <c r="DM148" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN148" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -53269,12 +53711,15 @@
         <v>0.0</v>
       </c>
       <c r="DM149" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DN149" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -53623,11 +54068,14 @@
       </c>
       <c r="DM150" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN150" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -53975,12 +54423,15 @@
         <v>0.0</v>
       </c>
       <c r="DM151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -54328,12 +54779,15 @@
         <v>0.0</v>
       </c>
       <c r="DM152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN152" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -54681,12 +55135,15 @@
         <v>8.0</v>
       </c>
       <c r="DM153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN153" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -55034,12 +55491,15 @@
         <v>0.0</v>
       </c>
       <c r="DM154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -55387,12 +55847,15 @@
         <v>0.0</v>
       </c>
       <c r="DM155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -55740,12 +56203,15 @@
         <v>0.0</v>
       </c>
       <c r="DM156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -56094,11 +56560,14 @@
       </c>
       <c r="DM157" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN157" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -56446,12 +56915,15 @@
         <v>0.0</v>
       </c>
       <c r="DM158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -56799,12 +57271,15 @@
         <v>0.0</v>
       </c>
       <c r="DM159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -57152,12 +57627,15 @@
         <v>1.0</v>
       </c>
       <c r="DM160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN160" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -57505,12 +57983,15 @@
         <v>0.0</v>
       </c>
       <c r="DM161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DN161" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -57858,12 +58339,15 @@
         <v>0.0</v>
       </c>
       <c r="DM162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN162" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -58212,11 +58696,14 @@
       </c>
       <c r="DM163" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN163" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -58565,11 +59052,14 @@
       </c>
       <c r="DM164" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN164" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -58917,12 +59407,15 @@
         <v>0.0</v>
       </c>
       <c r="DM165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -59271,11 +59764,14 @@
       </c>
       <c r="DM166" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN166" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -59623,12 +60119,15 @@
         <v>0.0</v>
       </c>
       <c r="DM167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN167" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -59976,12 +60475,15 @@
         <v>0.0</v>
       </c>
       <c r="DM168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -60330,11 +60832,14 @@
       </c>
       <c r="DM169" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN169" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -60682,12 +61187,15 @@
         <v>0.0</v>
       </c>
       <c r="DM170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -61035,12 +61543,15 @@
         <v>0.0</v>
       </c>
       <c r="DM171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -61389,11 +61900,14 @@
       </c>
       <c r="DM172" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN172" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -61742,11 +62256,14 @@
       </c>
       <c r="DM173" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DN173" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -62095,11 +62612,14 @@
       </c>
       <c r="DM174" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN174" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -62448,11 +62968,14 @@
       </c>
       <c r="DM175" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DN175" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -62800,12 +63323,15 @@
         <v>0.0</v>
       </c>
       <c r="DM176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -63154,11 +63680,14 @@
       </c>
       <c r="DM177" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DN177" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -63506,12 +64035,15 @@
         <v>0.0</v>
       </c>
       <c r="DM178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN178" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -63859,12 +64391,15 @@
         <v>0.0</v>
       </c>
       <c r="DM179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DN179" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -64212,12 +64747,15 @@
         <v>0.0</v>
       </c>
       <c r="DM180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -64566,11 +65104,14 @@
       </c>
       <c r="DM181" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DN181" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -64918,12 +65459,15 @@
         <v>0.0</v>
       </c>
       <c r="DM182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -65271,12 +65815,15 @@
         <v>0.0</v>
       </c>
       <c r="DM183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN183" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -65625,11 +66172,14 @@
       </c>
       <c r="DM184" t="n">
         <v>107.0</v>
+      </c>
+      <c r="DN184" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -65978,11 +66528,14 @@
       </c>
       <c r="DM185" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN185" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -66330,12 +66883,15 @@
         <v>8.0</v>
       </c>
       <c r="DM186" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DN186" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -66684,11 +67240,14 @@
       </c>
       <c r="DM187" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DN187" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -67037,11 +67596,14 @@
       </c>
       <c r="DM188" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN188" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -67390,11 +67952,14 @@
       </c>
       <c r="DM189" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN189" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -67742,12 +68307,15 @@
         <v>36.0</v>
       </c>
       <c r="DM190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN190" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -68095,12 +68663,15 @@
         <v>0.0</v>
       </c>
       <c r="DM191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -68449,11 +69020,14 @@
       </c>
       <c r="DM192" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN192" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -68802,11 +69376,14 @@
       </c>
       <c r="DM193" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN193" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -69154,12 +69731,15 @@
         <v>0.0</v>
       </c>
       <c r="DM194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -69508,11 +70088,14 @@
       </c>
       <c r="DM195" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DN195" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -69860,12 +70443,15 @@
         <v>1.0</v>
       </c>
       <c r="DM196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -70214,11 +70800,14 @@
       </c>
       <c r="DM197" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN197" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -70566,12 +71155,15 @@
         <v>0.0</v>
       </c>
       <c r="DM198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN198" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -70920,11 +71512,14 @@
       </c>
       <c r="DM199" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN199" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -71272,12 +71867,15 @@
         <v>0.0</v>
       </c>
       <c r="DM200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -71626,11 +72224,14 @@
       </c>
       <c r="DM201" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN201" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -71979,11 +72580,14 @@
       </c>
       <c r="DM202" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DN202" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -72332,11 +72936,14 @@
       </c>
       <c r="DM203" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN203" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -72685,11 +73292,14 @@
       </c>
       <c r="DM204" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DN204" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -73038,11 +73648,14 @@
       </c>
       <c r="DM205" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN205" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -73390,12 +74003,15 @@
         <v>5.0</v>
       </c>
       <c r="DM206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN206" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -73744,11 +74360,14 @@
       </c>
       <c r="DM207" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN207" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -74096,12 +74715,15 @@
         <v>0.0</v>
       </c>
       <c r="DM208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -74449,12 +75071,15 @@
         <v>1.0</v>
       </c>
       <c r="DM209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN209" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -74803,11 +75428,14 @@
       </c>
       <c r="DM210" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN210" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -75155,12 +75783,15 @@
         <v>0.0</v>
       </c>
       <c r="DM211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -75508,12 +76139,15 @@
         <v>0.0</v>
       </c>
       <c r="DM212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN212" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -75862,11 +76496,14 @@
       </c>
       <c r="DM213" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN213" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -76214,12 +76851,15 @@
         <v>0.0</v>
       </c>
       <c r="DM214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -76568,11 +77208,14 @@
       </c>
       <c r="DM215" t="n">
         <v>63.0</v>
+      </c>
+      <c r="DN215" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -76920,12 +77563,15 @@
         <v>0.0</v>
       </c>
       <c r="DM216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN216" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -77274,11 +77920,14 @@
       </c>
       <c r="DM217" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DN217" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -77627,11 +78276,14 @@
       </c>
       <c r="DM218" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DN218" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -77979,12 +78631,15 @@
         <v>1.0</v>
       </c>
       <c r="DM219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -78332,12 +78987,15 @@
         <v>0.0</v>
       </c>
       <c r="DM220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -78686,11 +79344,14 @@
       </c>
       <c r="DM221" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN221" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -79038,12 +79699,15 @@
         <v>-1.0</v>
       </c>
       <c r="DM222" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DN222" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -79392,11 +80056,14 @@
       </c>
       <c r="DM223" t="n">
         <v>122.0</v>
+      </c>
+      <c r="DN223" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -79745,11 +80412,14 @@
       </c>
       <c r="DM224" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DN224" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -80097,12 +80767,15 @@
         <v>0.0</v>
       </c>
       <c r="DM225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -80450,12 +81123,15 @@
         <v>0.0</v>
       </c>
       <c r="DM226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -80803,12 +81479,15 @@
         <v>0.0</v>
       </c>
       <c r="DM227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -81157,11 +81836,14 @@
       </c>
       <c r="DM228" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DN228" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -81510,11 +82192,14 @@
       </c>
       <c r="DM229" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DN229" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -81862,12 +82547,15 @@
         <v>0.0</v>
       </c>
       <c r="DM230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -82216,11 +82904,14 @@
       </c>
       <c r="DM231" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN231" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -82568,12 +83259,15 @@
         <v>15.0</v>
       </c>
       <c r="DM232" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DN232" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -82922,11 +83616,14 @@
       </c>
       <c r="DM233" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN233" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -83275,11 +83972,14 @@
       </c>
       <c r="DM234" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DN234" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -83628,11 +84328,14 @@
       </c>
       <c r="DM235" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN235" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -83980,12 +84683,15 @@
         <v>0.0</v>
       </c>
       <c r="DM236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -84334,11 +85040,14 @@
       </c>
       <c r="DM237" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DN237" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -84686,12 +85395,15 @@
         <v>0.0</v>
       </c>
       <c r="DM238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -85040,11 +85752,14 @@
       </c>
       <c r="DM239" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DN239" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -85393,11 +86108,14 @@
       </c>
       <c r="DM240" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN240" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -85746,11 +86464,14 @@
       </c>
       <c r="DM241" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN241" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -86099,11 +86820,14 @@
       </c>
       <c r="DM242" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DN242" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -86451,12 +87175,15 @@
         <v>0.0</v>
       </c>
       <c r="DM243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -86805,11 +87532,14 @@
       </c>
       <c r="DM244" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN244" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -87157,12 +87887,15 @@
         <v>0.0</v>
       </c>
       <c r="DM245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -87510,12 +88243,15 @@
         <v>0.0</v>
       </c>
       <c r="DM246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -87863,12 +88599,15 @@
         <v>0.0</v>
       </c>
       <c r="DM247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -88217,11 +88956,14 @@
       </c>
       <c r="DM248" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DN248" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -88569,12 +89311,15 @@
         <v>0.0</v>
       </c>
       <c r="DM249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -88923,11 +89668,14 @@
       </c>
       <c r="DM250" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DN250" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -89276,11 +90024,14 @@
       </c>
       <c r="DM251" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN251" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -89629,11 +90380,14 @@
       </c>
       <c r="DM252" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DN252" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -89982,11 +90736,14 @@
       </c>
       <c r="DM253" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DN253" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -90334,12 +91091,15 @@
         <v>0.0</v>
       </c>
       <c r="DM254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -90687,12 +91447,15 @@
         <v>0.0</v>
       </c>
       <c r="DM255" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DN255" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -91041,11 +91804,14 @@
       </c>
       <c r="DM256" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DN256" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -91394,11 +92160,14 @@
       </c>
       <c r="DM257" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DN257" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -91516,10 +92285,11 @@
       <c r="DK258"/>
       <c r="DL258"/>
       <c r="DM258"/>
+      <c r="DN258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -91637,6 +92407,7 @@
       <c r="DK259"/>
       <c r="DL259"/>
       <c r="DM259"/>
+      <c r="DN259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
